--- a/medicine/Enfance/Bernadette_Sanou_Dao/Bernadette_Sanou_Dao.xlsx
+++ b/medicine/Enfance/Bernadette_Sanou_Dao/Bernadette_Sanou_Dao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernadette Sanou Dao, Bernadette Dao ou Bernadette Dao Sanou, née le 25 février 1952 à Bamako (alors au Soudan français, aujourd'hui au Mali) est une enseignante, écrivaine de langue française et femme politique burkinabé[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernadette Sanou Dao, Bernadette Dao ou Bernadette Dao Sanou, née le 25 février 1952 à Bamako (alors au Soudan français, aujourd'hui au Mali) est une enseignante, écrivaine de langue française et femme politique burkinabé,.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernadette Sanou Dao nait le 25 février 1952 à Baguinda au Mali[3]. À l'âge de 11 ans, sa famille quitte le Mali pour le Burkina Faso (alors Haute-Volta). Elle est élève au collège Notre Dame de Kolog-Naba à Ouagadougou et obtient son baccalauréat en 1972 ; elle poursuit des études de littérature et de linguistique à Dakar[3] (université Cheikh-Anta-Diop où elle obtient un DEA en linguistique), aux États-Unis (Université de l'Ohio, master en linguistique africaine) et en France (au CREDIF)[4].
-De retour au Burkina Faso, elle est enseignante de français, responsable du service de linguistique appliquée puis directrice jusqu'à sa retraite en 2012 de l'Institut Pédagogique du Burkina ; elle participe à l'édition de manuels scolaires pour l'enseignement du dioula[3]. En 1986-1987, elle est la première ministre de la culture du Burkina Faso, poste créé sous de la présidence de Thomas Sankara[5],[3]. Après le coup d'état contre Sankara, outre son travail à l'Institut Pédagogique, elle se consacre à des associations de protection des femmes et des enfants, fondant en 1988 l'UNTENI (Association pour la survie, la protection et le développement de l'enfant) et en 1991 la GUIMBI ( Caisse mutuelle pour les femmes). À partir de 1996, elle occupe divers postes (membre du Conseil Supérieur de l'Information ; ministre de l'Intégration Régionale en 1999 ; directrice de l’Office national du Tourisme burkinabé).
-Bernadette Sanou Dao écrit de la poésie, des récits et nouvelles ; elle a publié un livre pour enfants sous le pseudonyme de Mâh Dao. Elle est lauréate du prix Jean-Cocteau de poésie en 1995 pour son recueil Quote-part et Symphonie[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernadette Sanou Dao nait le 25 février 1952 à Baguinda au Mali. À l'âge de 11 ans, sa famille quitte le Mali pour le Burkina Faso (alors Haute-Volta). Elle est élève au collège Notre Dame de Kolog-Naba à Ouagadougou et obtient son baccalauréat en 1972 ; elle poursuit des études de littérature et de linguistique à Dakar (université Cheikh-Anta-Diop où elle obtient un DEA en linguistique), aux États-Unis (Université de l'Ohio, master en linguistique africaine) et en France (au CREDIF).
+De retour au Burkina Faso, elle est enseignante de français, responsable du service de linguistique appliquée puis directrice jusqu'à sa retraite en 2012 de l'Institut Pédagogique du Burkina ; elle participe à l'édition de manuels scolaires pour l'enseignement du dioula. En 1986-1987, elle est la première ministre de la culture du Burkina Faso, poste créé sous de la présidence de Thomas Sankara,. Après le coup d'état contre Sankara, outre son travail à l'Institut Pédagogique, elle se consacre à des associations de protection des femmes et des enfants, fondant en 1988 l'UNTENI (Association pour la survie, la protection et le développement de l'enfant) et en 1991 la GUIMBI ( Caisse mutuelle pour les femmes). À partir de 1996, elle occupe divers postes (membre du Conseil Supérieur de l'Information ; ministre de l'Intégration Régionale en 1999 ; directrice de l’Office national du Tourisme burkinabé).
+Bernadette Sanou Dao écrit de la poésie, des récits et nouvelles ; elle a publié un livre pour enfants sous le pseudonyme de Mâh Dao. Elle est lauréate du prix Jean-Cocteau de poésie en 1995 pour son recueil Quote-part et Symphonie.
 </t>
         </is>
       </c>
@@ -546,20 +560,94 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nouvelles
-La dernière épouse, Abidjan, EDILIS, 1997, 128 p.  (ISBN 2-909238-64-4) ; réunit neuf nouvelles : Un garçon pour Malick ; Le fils de l'abbé Banbaga Jean-Baptiste ; Hommes tout-puissants ; L'amant de Josette ; Rue de l'hôpital ; Sacrée mère Zizanie ; Un albinos pour le trône ; La dernière épouse ; Tony le rêve[1],[7] ; 2e édition, Abidjan, EDILIS, 2001.
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La dernière épouse, Abidjan, EDILIS, 1997, 128 p.  (ISBN 2-909238-64-4) ; réunit neuf nouvelles : Un garçon pour Malick ; Le fils de l'abbé Banbaga Jean-Baptiste ; Hommes tout-puissants ; L'amant de Josette ; Rue de l'hôpital ; Sacrée mère Zizanie ; Un albinos pour le trône ; La dernière épouse ; Tony le rêve, ; 2e édition, Abidjan, EDILIS, 2001.
 La femme de diable &amp; autres histoires, Ouagadougou, Découvertes du Burkina, 2003.
 Avance, mon peuple et autres nouvelles du Burkina Faso, Ouagadougou, Découvertes du Burkina, 2005, 233 p.  (ISBN 2-915991-02-2).
-Le charme rompu, Abidjan, Vallesse Éditions, 2014.
-Poésie
-Parturition (Vaines douleurs-fureur vaine), dans le recueil Poésie, Ouagadougou, Ministère de la Culture, Imprimerie Presses Africaines, 1988, p. 5-38[8].
+Le charme rompu, Abidjan, Vallesse Éditions, 2014.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bernadette_Sanou_Dao</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernadette_Sanou_Dao</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parturition (Vaines douleurs-fureur vaine), dans le recueil Poésie, Ouagadougou, Ministère de la Culture, Imprimerie Presses Africaines, 1988, p. 5-38.
 Émeraudes, dans le recueil Poésie pour enfants, Ouagadougou, Ministère de la Culture, Imprimerie Presses Africaines, 1987, p. 5-20.
 Symphonie (Soie et Soleil), Ouagadougou, Imprimerie Nouvelle du Centre, 1992.
-Quote-Part, poésie, Ouagadougou, Imprimerie Nouvelle du Centre, 1992. Le poème « Une femme comme il faut » est particulièrement remarqué[6],[9]
+Quote-Part, poésie, Ouagadougou, Imprimerie Nouvelle du Centre, 1992. Le poème « Une femme comme il faut » est particulièrement remarqué,
 Quote-part et Symphonie, Paris, Nouvelle Pléiade, 1995, 58 p.  (ISBN 2-84185-030-7).
-Son poème « Une visite embarrassante » a inspiré en 2015 le film court-métrage « Quelqu'un à la porte » de la réalisatrice Burkinabé Habibou Zoungrana[10].
-Livres pour enfants
-La Crèche du petit Mohammed, Abidjan, CEDA/ Hurterbise, 2002, collection « Lire au présent » ; réédition : Vanves, Édicef, 2012, 32 p. illustré par Audrey Gessat  (ISBN 978-2-7531-0549-2)[11].</t>
+Son poème « Une visite embarrassante » a inspiré en 2015 le film court-métrage « Quelqu'un à la porte » de la réalisatrice Burkinabé Habibou Zoungrana.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bernadette_Sanou_Dao</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernadette_Sanou_Dao</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Crèche du petit Mohammed, Abidjan, CEDA/ Hurterbise, 2002, collection « Lire au présent » ; réédition : Vanves, Édicef, 2012, 32 p. illustré par Audrey Gessat  (ISBN 978-2-7531-0549-2).</t>
         </is>
       </c>
     </row>
